--- a/biology/Médecine/Anne_Van_Hout/Anne_Van_Hout.xlsx
+++ b/biology/Médecine/Anne_Van_Hout/Anne_Van_Hout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Van Hout est une neuropsychiatre belge, spécialiste de l'enfant[1], née le 16 avril 1944 à Bruxelles, où elle meurt le 12 novembre 2003.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Van Hout est une neuropsychiatre belge, spécialiste de l'enfant, née le 16 avril 1944 à Bruxelles, où elle meurt le 12 novembre 2003.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études de médecine et obtient une spécialisation en pédiatrie. Elle devient neuropsychiatre, puis, elle passe le diplôme pour enseigner à l'université.
 Elle écrit des livres, notamment sur les troubles d'apprentissage des enfants.
@@ -544,7 +558,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Aphasie de l'enfant (Mardaga, 1984)
 Les Dyslexies (Masson, 1994, réédition 2001)
